--- a/data/donnees_AGRIVET ANTSIRABE_2023-07-24.xlsx
+++ b/data/donnees_AGRIVET ANTSIRABE_2023-07-24.xlsx
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-129319240</v>
+        <v>-131119240</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>31989680</v>
@@ -742,7 +742,7 @@
         <v>40631200.75</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-16276959.25</v>
+        <v>-18076959.25</v>
       </c>
     </row>
     <row r="9">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-61567910</v>
+        <v>-64367910</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>26561300</v>
@@ -812,7 +812,7 @@
         <v>1673100</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>6174700</v>
+        <v>3374700</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-6521500</v>
+        <v>-7592800</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>1151300</v>
@@ -847,7 +847,7 @@
         <v>630500</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1071300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-5284342</v>
+        <v>-5550842</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>3892500</v>
@@ -1057,7 +1057,7 @@
         <v>7766450</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>6374608</v>
+        <v>6108108</v>
       </c>
     </row>
     <row r="18">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-10782200</v>
+        <v>-15651000</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>13404750</v>
@@ -1232,7 +1232,7 @@
         <v>9339801.050000001</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>15696151.05</v>
+        <v>10827351.05</v>
       </c>
     </row>
     <row r="23">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-15994500</v>
+        <v>-17464500</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12850000</v>
@@ -1302,7 +1302,7 @@
         <v>238000</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>11926000</v>
+        <v>10456000</v>
       </c>
     </row>
     <row r="25">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-25346562</v>
+        <v>-26653062</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>5288490</v>
@@ -1337,7 +1337,7 @@
         <v>990000</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-2682322</v>
+        <v>-3988822</v>
       </c>
     </row>
     <row r="26">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-27754400</v>
+        <v>-31754400</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>31396386</v>
@@ -1407,7 +1407,7 @@
         <v>11360200</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>20508186</v>
+        <v>16508186</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-22648000</v>
+        <v>-23848000</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>4322300</v>
@@ -1442,7 +1442,7 @@
         <v>16869700</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>1190800</v>
+        <v>-9200</v>
       </c>
     </row>
     <row r="29">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-42889900</v>
+        <v>-46960900</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>25780800</v>
@@ -1512,7 +1512,7 @@
         <v>11962600</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>12840800</v>
+        <v>8769800</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-5267200</v>
+        <v>-7743625</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>-5000</v>
@@ -1547,7 +1547,7 @@
         <v>1888000</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-1391200</v>
+        <v>-3867625</v>
       </c>
     </row>
     <row r="32">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-929200</v>
+        <v>-1439200</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>2671850</v>
@@ -1617,7 +1617,7 @@
         <v>6018203.52</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>8690053.52</v>
+        <v>8180053.52</v>
       </c>
     </row>
     <row r="34">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-15413200</v>
+        <v>-16231000</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>4429200</v>
@@ -1932,7 +1932,7 @@
         <v>277000</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-3122800</v>
+        <v>-3940600</v>
       </c>
     </row>
     <row r="43">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-11430300</v>
+        <v>-16359300</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>29830000</v>
@@ -2422,7 +2422,7 @@
         <v>2230000</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>20634200</v>
+        <v>15705200</v>
       </c>
     </row>
     <row r="57">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-17105740</v>
+        <v>-20477740</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>40180800</v>
@@ -2457,7 +2457,7 @@
         <v>2952000</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>16575060</v>
+        <v>13203060</v>
       </c>
     </row>
     <row r="58">
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-33754240</v>
+        <v>-35445440</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>11553500</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>1571700</v>
+        <v>-119500</v>
       </c>
     </row>
     <row r="59">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-15794540</v>
+        <v>-17914540</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>5542700</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>3373400</v>
+        <v>1253400</v>
       </c>
     </row>
     <row r="60">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-5839900</v>
+        <v>-5849900</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>3211100</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>1751300</v>
+        <v>1741300</v>
       </c>
     </row>
     <row r="65">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-8510400</v>
+        <v>-9590400</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>4376950</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>6400510</v>
+        <v>5320510</v>
       </c>
     </row>
     <row r="70">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-4750200</v>
+        <v>-10470700</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>11704500</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>6954300</v>
+        <v>1233800</v>
       </c>
     </row>
     <row r="74">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-16956200</v>
+        <v>-20456200</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>31178400</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>14222200</v>
+        <v>10722200</v>
       </c>
     </row>
     <row r="76">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>675510</v>
+        <v>-6324490</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>11690400</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>12365910</v>
+        <v>5365910</v>
       </c>
     </row>
     <row r="78">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-16409600</v>
+        <v>-18474700</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>7146972</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>4399872</v>
+        <v>2334772</v>
       </c>
     </row>
     <row r="83">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>12137000</v>
+        <v>-10863000</v>
       </c>
       <c r="E84" s="2" t="n">
         <v>36870600</v>
@@ -3402,7 +3402,7 @@
         <v>-31000</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>41976600</v>
+        <v>18976600</v>
       </c>
     </row>
     <row r="85">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-21149300</v>
+        <v>-21288500</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>16177800</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>-524000</v>
+        <v>-663200</v>
       </c>
     </row>
     <row r="90">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-6023800</v>
+        <v>-10207100</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>5639100</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>3273300</v>
+        <v>-910000</v>
       </c>
     </row>
     <row r="91">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>-2392800</v>
+        <v>-3217500</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>3830500</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>1437700</v>
+        <v>613000</v>
       </c>
     </row>
     <row r="95">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-6944800</v>
+        <v>-7844800</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>8486500</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>1541700</v>
+        <v>641700</v>
       </c>
     </row>
     <row r="98">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-19493200</v>
+        <v>-22189200</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>3706150</v>
@@ -3962,7 +3962,7 @@
         <v>18382351.2</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>2595301.2</v>
+        <v>-100698.8</v>
       </c>
     </row>
     <row r="101">

--- a/data/donnees_AGRIVET ANTSIRABE_2023-07-24.xlsx
+++ b/data/donnees_AGRIVET ANTSIRABE_2023-07-24.xlsx
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-11963700</v>
+        <v>-12863700</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>13154900</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1191200</v>
+        <v>291200</v>
       </c>
     </row>
     <row r="5">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-64367910</v>
+        <v>-64644910</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>26561300</v>
@@ -812,7 +812,7 @@
         <v>1673100</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>3374700</v>
+        <v>3097700</v>
       </c>
     </row>
     <row r="11">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-5550842</v>
+        <v>-6142642</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>3892500</v>
@@ -1057,7 +1057,7 @@
         <v>7766450</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>6108108</v>
+        <v>5516308</v>
       </c>
     </row>
     <row r="18">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-15651000</v>
+        <v>-19304000</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>13404750</v>
@@ -1232,7 +1232,7 @@
         <v>9339801.050000001</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>10827351.05</v>
+        <v>7174351.05</v>
       </c>
     </row>
     <row r="23">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-46960900</v>
+        <v>-47308900</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>25780800</v>
@@ -1512,7 +1512,7 @@
         <v>11962600</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>8769800</v>
+        <v>8421800</v>
       </c>
     </row>
     <row r="31">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-17914540</v>
+        <v>-18564540</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>5542700</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>1253400</v>
+        <v>603400</v>
       </c>
     </row>
     <row r="60">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-9590400</v>
+        <v>-11161250</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>4376950</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>5320510</v>
+        <v>3749660</v>
       </c>
     </row>
     <row r="70">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-10470700</v>
+        <v>-16537700</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>11704500</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>1233800</v>
+        <v>-4833200</v>
       </c>
     </row>
     <row r="74">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-6324490</v>
+        <v>-9324490</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>11690400</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>5365910</v>
+        <v>2365910</v>
       </c>
     </row>
     <row r="78">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-18474700</v>
+        <v>-20809500</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>7146972</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>2334772</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="83">
